--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3520853.559823619</v>
+        <v>3518559.964367024</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>162.9848195363586</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>39.45655134471478</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>113.7922964278911</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8242493721</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>127.4503987265485</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>183.6610299534047</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>62.85012899977507</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>219.3035610833823</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>55.17585209939313</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054921</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,13 +1427,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>139.3687739767489</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710101</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>229.2938944146496</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444163</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428251</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428207</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>178.2642147042091</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>60.78102717027877</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881278</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>126.926382450742</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,16 +3904,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3952,10 +3952,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>127.6065435523126</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1688.365042002428</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1688.365042002428</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,10 +4328,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2273.008990081819</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2019.427929345999</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1688.365042002428</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1688.365042002428</v>
+        <v>1604.395429084661</v>
       </c>
       <c r="X2" t="n">
-        <v>1688.365042002428</v>
+        <v>1230.929670823581</v>
       </c>
       <c r="Y2" t="n">
-        <v>1688.365042002428</v>
+        <v>1230.929670823581</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687206</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1905.213796220499</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C4" t="n">
-        <v>1736.277613292592</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>1586.160973880257</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>1438.247880297864</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>1291.357932799953</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>1125.878893030155</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>2307.654840194269</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>2307.654840194269</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X4" t="n">
-        <v>2307.654840194269</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="Y4" t="n">
-        <v>2086.862261050739</v>
+        <v>314.9273982680232</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2349.518518051532</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2349.518518051532</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1959.379186075721</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>527.322087337517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C7" t="n">
-        <v>527.322087337517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,10 +4744,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
@@ -4759,16 +4759,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621292</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251686</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>527.322087337517</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y7" t="n">
-        <v>527.322087337517</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3104.087073040097</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.087073040097</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.318417769983</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.852659508903</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616111</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958744</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679675</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556317</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>483.8760050556317</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>483.8760050556317</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>316.6799057705117</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267662</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261141</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249848</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
         <v>402.7245934908939</v>
@@ -5428,58 +5428,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168638</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362709</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803939</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803939</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803939</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438167</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192724</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111728</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111727</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797193</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,22 +6218,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6245,16 +6245,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,16 +6297,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6315,16 +6315,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,10 +6458,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,40 +6470,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,64 +6923,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348531</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7072,34 +7072,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348531</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7391,16 +7391,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7418,16 +7418,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1559.490355317017</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>1042.083634382039</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186.5911984019047</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>193.3273467878348</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>38.1389282762425</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9259388694750044</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>36.41624546988362</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194134</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194179</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>31.13893193492463</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.4657939283491</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>62.35543909864963</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25840,10 +25840,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>675045.10421944</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>675045.1042194398</v>
+        <v>675045.1042194399</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>675045.1042194398</v>
+        <v>675045.1042194399</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>675045.1042194399</v>
+        <v>675045.1042194398</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="G2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="J2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132555</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>203438.7416121057</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.069662687314121e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.723256517081232e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099822</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605439</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551168</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
-        <v>1.670698566158535e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312023</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312023</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768817</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768781</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768776</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768825</v>
+        <v>9947.144321768912</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
+        <v>9947.14432176889</v>
+      </c>
+      <c r="K4" t="n">
         <v>9947.144321768859</v>
       </c>
-      <c r="K4" t="n">
-        <v>9947.144321768897</v>
-      </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768934</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.14432176889</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-586156.3292985237</v>
+        <v>-586156.3292985242</v>
       </c>
       <c r="C6" t="n">
-        <v>358956.7758578432</v>
+        <v>358956.7758578434</v>
       </c>
       <c r="D6" t="n">
         <v>562395.5174699489</v>
       </c>
       <c r="E6" t="n">
-        <v>310128.4687602239</v>
+        <v>310093.7308347881</v>
       </c>
       <c r="F6" t="n">
-        <v>635540.9305675795</v>
+        <v>635506.1926421438</v>
       </c>
       <c r="G6" t="n">
-        <v>635540.9305675795</v>
+        <v>635506.1926421437</v>
       </c>
       <c r="H6" t="n">
-        <v>635540.9305675793</v>
+        <v>635506.1926421435</v>
       </c>
       <c r="I6" t="n">
-        <v>635540.9305675792</v>
+        <v>635506.1926421437</v>
       </c>
       <c r="J6" t="n">
-        <v>467935.752757597</v>
+        <v>467901.014832161</v>
       </c>
       <c r="K6" t="n">
-        <v>586430.8378615249</v>
+        <v>586396.0999360892</v>
       </c>
       <c r="L6" t="n">
-        <v>635540.9305675792</v>
+        <v>635506.1926421438</v>
       </c>
       <c r="M6" t="n">
-        <v>550485.9026320677</v>
+        <v>550451.1647066317</v>
       </c>
       <c r="N6" t="n">
-        <v>635540.9305675791</v>
+        <v>635506.1926421437</v>
       </c>
       <c r="O6" t="n">
-        <v>635540.9305675792</v>
+        <v>635506.1926421438</v>
       </c>
       <c r="P6" t="n">
-        <v>635540.9305675796</v>
+        <v>635506.1926421437</v>
       </c>
     </row>
   </sheetData>
@@ -26710,13 +26710,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.717726427045693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.717726427045693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.717726427045693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26790,31 +26790,31 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000384</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>43.67336544387518</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>309.7844173726982</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>66.03968375404622</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>2.4823506727042</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>254.4799713457133</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>165.5799387640083</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>162.8595263892621</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>31.69161087551964</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>314.5552485790759</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>271.1000969860418</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,19 +28087,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.221555270729305e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.523262977870766e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-9.352380938653054e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.62190269495477e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-1.346076050387549e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-8.30056023914949e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>7.604171229040412e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30472,10 +30472,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319844</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L15" t="n">
-        <v>460.9249101897653</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>581.3243739860818</v>
+        <v>322.7581251332984</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067244</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>307.3280120589134</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460043</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,10 +34214,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>553.5225306839452</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>443.0068759113671</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875399</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L15" t="n">
-        <v>322.3705304098911</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>439.1903400640634</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236318498</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243176</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,10 +37862,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,7 +37874,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
